--- a/PhoenixCI/Excel_Template/30660.xlsx
+++ b/PhoenixCI/Excel_Template/30660.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF9B2250-C6D8-4E3E-AD63-D1C36EC4D95A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AB7D081-5BEB-4801-AAB2-41CDB5430EB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Eurex vs TX" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1073,7 +1072,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1099,6 +1098,9 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1111,7 +1113,7 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1124,25 +1126,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1151,7 +1159,7 @@
     <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1160,7 +1168,7 @@
     <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1197,7 +1205,7 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1560,165 +1568,165 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28" style="14" customWidth="1"/>
-    <col min="2" max="3" width="9.375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="14" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="15" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="14" style="14" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="14" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="16" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9" style="16" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="15" customWidth="1"/>
-    <col min="14" max="27" width="0" style="15" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="28" style="15" customWidth="1"/>
+    <col min="2" max="3" width="9.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="15" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="14" style="15" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="15" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="15" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="9" style="17" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="16" customWidth="1"/>
+    <col min="14" max="27" width="0" style="16" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="1.5" customHeight="1"/>
     <row r="2" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A2" s="17"/>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="37" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="37" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="37" t="s">
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="38"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40" t="s">
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="41"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="8" spans="1:13" s="25" customFormat="1" ht="87" customHeight="1">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:13" s="28" customFormat="1" ht="87" customHeight="1">
+      <c r="A8" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1750,102 +1758,102 @@
     <col min="2" max="3" width="9.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="5" customWidth="1"/>
     <col min="5" max="6" width="8.75" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="29" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="32" customWidth="1"/>
     <col min="8" max="9" width="8.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="29" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="32" customWidth="1"/>
     <col min="11" max="11" width="14" style="7" customWidth="1"/>
     <col min="12" max="12" width="13.25" style="7" customWidth="1"/>
     <col min="13" max="13" width="13.625" style="7" customWidth="1"/>
     <col min="14" max="14" width="7.875" style="8" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="8" customWidth="1"/>
     <col min="16" max="16" width="9" style="8" customWidth="1"/>
-    <col min="17" max="17" width="12.875" style="33" customWidth="1"/>
-    <col min="18" max="19" width="9" style="31"/>
+    <col min="17" max="17" width="12.875" style="36" customWidth="1"/>
+    <col min="18" max="19" width="9" style="34"/>
     <col min="20" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="5.25" customHeight="1">
-      <c r="A1" s="9"/>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" customHeight="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="46" t="s">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="46" t="s">
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="42" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="44" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="42" t="s">
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
     </row>
     <row r="3" spans="1:19" ht="49.5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="29" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -1866,7 +1874,7 @@
       <c r="P3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="35" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="6" t="s">

--- a/PhoenixCI/Excel_Template/30660.xlsx
+++ b/PhoenixCI/Excel_Template/30660.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Source\Repos\buckblader\RekindlePhoenixCI\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AB7D081-5BEB-4801-AAB2-41CDB5430EB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF9B2250-C6D8-4E3E-AD63-D1C36EC4D95A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23715" windowHeight="9630" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Eurex vs TX" sheetId="4" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1072,7 +1073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1098,9 +1099,6 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1113,7 +1111,7 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1126,31 +1124,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1159,7 +1151,7 @@
     <xf numFmtId="180" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1168,7 +1160,7 @@
     <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1205,7 +1197,7 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1568,165 +1560,165 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="28" style="15" customWidth="1"/>
-    <col min="2" max="3" width="9.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="8.75" style="15" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="16" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14" style="15" customWidth="1"/>
-    <col min="8" max="8" width="13.25" style="15" customWidth="1"/>
-    <col min="9" max="9" width="13.625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="17" customWidth="1"/>
-    <col min="12" max="12" width="9" style="17" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="16" customWidth="1"/>
-    <col min="14" max="27" width="0" style="16" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="28" style="14" customWidth="1"/>
+    <col min="2" max="3" width="9.375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="14" customWidth="1"/>
+    <col min="5" max="5" width="7.75" style="15" customWidth="1"/>
+    <col min="6" max="6" width="7.625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="14" style="14" customWidth="1"/>
+    <col min="8" max="8" width="13.25" style="14" customWidth="1"/>
+    <col min="9" max="9" width="13.625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="16" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="16" customWidth="1"/>
+    <col min="12" max="12" width="9" style="16" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="15" customWidth="1"/>
+    <col min="14" max="27" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="1.5" customHeight="1"/>
     <row r="2" spans="1:13" ht="33.75" customHeight="1">
-      <c r="A2" s="18"/>
-      <c r="B2" s="40" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="40" t="s">
+      <c r="F2" s="39"/>
+      <c r="G2" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="40" t="s">
+      <c r="H2" s="38"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43" t="s">
+      <c r="K2" s="38"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="16.5">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="44"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="8" spans="1:13" s="28" customFormat="1" ht="87" customHeight="1">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:13" s="25" customFormat="1" ht="87" customHeight="1">
+      <c r="A8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1758,102 +1750,102 @@
     <col min="2" max="3" width="9.375" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="5" customWidth="1"/>
     <col min="5" max="6" width="8.75" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="32" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="29" customWidth="1"/>
     <col min="8" max="9" width="8.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="12.625" style="29" customWidth="1"/>
     <col min="11" max="11" width="14" style="7" customWidth="1"/>
     <col min="12" max="12" width="13.25" style="7" customWidth="1"/>
     <col min="13" max="13" width="13.625" style="7" customWidth="1"/>
     <col min="14" max="14" width="7.875" style="8" customWidth="1"/>
     <col min="15" max="15" width="9.5" style="8" customWidth="1"/>
     <col min="16" max="16" width="9" style="8" customWidth="1"/>
-    <col min="17" max="17" width="12.875" style="36" customWidth="1"/>
-    <col min="18" max="19" width="9" style="34"/>
+    <col min="17" max="17" width="12.875" style="33" customWidth="1"/>
+    <col min="18" max="19" width="9" style="31"/>
     <col min="20" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="5.25" customHeight="1">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
     </row>
     <row r="2" spans="1:19" ht="33.75" customHeight="1">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="49" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="50"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="49" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="45" t="s">
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="47" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="45" t="s">
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
     </row>
     <row r="3" spans="1:19" ht="49.5">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="26" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -1874,7 +1866,7 @@
       <c r="P3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="32" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="6" t="s">
